--- a/andes/cases/ieee14/ieee14_hygov4.xlsx
+++ b/andes/cases/ieee14/ieee14_hygov4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\zaidmahmood\repos\andes\andes\cases\ieee14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA924AE1-8729-4FBC-BD4D-8DA9592A9778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96235C7B-0497-4B83-9640-B40471BE9750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1501" yWindow="1501" windowWidth="17425" windowHeight="8954" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Toggler" sheetId="1" r:id="rId1"/>
@@ -984,7 +984,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -1064,11 +1064,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E613F46-39BC-604D-A2CE-C40FAEE39A69}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.55"/>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
@@ -1202,7 +1202,7 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
@@ -1426,7 +1426,7 @@
       <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
@@ -1548,7 +1548,7 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
@@ -1884,7 +1884,7 @@
       <selection pane="bottomLeft" activeCell="N38" sqref="N38:O38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
@@ -2004,7 +2004,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
@@ -2680,7 +2680,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
@@ -3116,7 +3116,7 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
@@ -3415,7 +3415,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
@@ -3552,7 +3552,7 @@
       <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
@@ -4942,7 +4942,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
@@ -5054,7 +5054,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -5112,7 +5112,7 @@
       <selection pane="bottomLeft" activeCell="AC20" sqref="AC20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>
   <sheetData>
     <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">

--- a/andes/cases/ieee14/ieee14_hygov4.xlsx
+++ b/andes/cases/ieee14/ieee14_hygov4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\zaidmahmood\repos\andes\andes\cases\ieee14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96235C7B-0497-4B83-9640-B40471BE9750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E129CA-077F-4FDA-9595-2887753A6EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1501" yWindow="1501" windowWidth="17425" windowHeight="8954" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Toggler" sheetId="1" r:id="rId1"/>
@@ -1065,7 +1065,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.55"/>

--- a/andes/cases/ieee14/ieee14_hygov4.xlsx
+++ b/andes/cases/ieee14/ieee14_hygov4.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\zaidmahmood\repos\andes\andes\cases\ieee14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF42C6A-59BF-4C68-9AC2-8EBECA47CFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2ED927-FD25-4AF2-BE78-F1B3D5722860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2759" yWindow="653" windowWidth="17425" windowHeight="8955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Alter" sheetId="1" r:id="rId1"/>
+    <sheet name="Toggler" sheetId="23" r:id="rId1"/>
     <sheet name="Bus" sheetId="2" r:id="rId2"/>
     <sheet name="PQ" sheetId="3" r:id="rId3"/>
     <sheet name="PV" sheetId="4" r:id="rId4"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="178">
   <si>
     <t>uid</t>
   </si>
@@ -563,43 +563,10 @@
     <t>UO</t>
   </si>
   <si>
-    <t>src</t>
-  </si>
-  <si>
-    <t>attr</t>
-  </si>
-  <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>rand</t>
-  </si>
-  <si>
-    <t>lb</t>
-  </si>
-  <si>
-    <t>ub</t>
-  </si>
-  <si>
-    <t>LoadIncrease_1</t>
-  </si>
-  <si>
-    <t>PQ</t>
-  </si>
-  <si>
-    <t>Ppf</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>LoadIncrease_2</t>
-  </si>
-  <si>
-    <t>Qpf</t>
+    <t>Toggler_1</t>
+  </si>
+  <si>
+    <t>Line</t>
   </si>
 </sst>
 </file>
@@ -637,10 +604,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -691,7 +657,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -711,8 +677,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1015,143 +979,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4181E1E-F7D3-4158-B920-64AB8EA7781B}">
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>
+  <sheetFormatPr defaultRowHeight="14.55"/>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>176</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" t="s">
         <v>177</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
       <c r="F2" t="s">
-        <v>184</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" t="s">
-        <v>185</v>
-      </c>
-      <c r="J2" t="s">
-        <v>186</v>
-      </c>
-      <c r="K2">
-        <v>0.6</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" t="s">
-        <v>188</v>
-      </c>
-      <c r="J3" t="s">
-        <v>186</v>
-      </c>
-      <c r="K3">
-        <v>0.1</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1160,7 +1053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E613F46-39BC-604D-A2CE-C40FAEE39A69}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -5205,7 +5098,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC20" sqref="AC20"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>

--- a/andes/cases/ieee14/ieee14_hygov4.xlsx
+++ b/andes/cases/ieee14/ieee14_hygov4.xlsx
@@ -8,32 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\zaidmahmood\repos\andes\andes\cases\ieee14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2ED927-FD25-4AF2-BE78-F1B3D5722860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6201E4D-8270-4616-B24A-394896A56DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2759" yWindow="653" windowWidth="17425" windowHeight="8955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Toggler" sheetId="23" r:id="rId1"/>
-    <sheet name="Bus" sheetId="2" r:id="rId2"/>
-    <sheet name="PQ" sheetId="3" r:id="rId3"/>
-    <sheet name="PV" sheetId="4" r:id="rId4"/>
-    <sheet name="Slack" sheetId="5" r:id="rId5"/>
-    <sheet name="Line" sheetId="7" r:id="rId6"/>
-    <sheet name="Shunt" sheetId="6" r:id="rId7"/>
-    <sheet name="Area" sheetId="8" r:id="rId8"/>
-    <sheet name="GENROU" sheetId="9" r:id="rId9"/>
-    <sheet name="HYGOV4" sheetId="21" r:id="rId10"/>
-    <sheet name="TGOV1" sheetId="10" r:id="rId11"/>
-    <sheet name="EXST1" sheetId="11" r:id="rId12"/>
-    <sheet name="ESST3A" sheetId="12" r:id="rId13"/>
-    <sheet name="BusFreq" sheetId="13" r:id="rId14"/>
+    <sheet name="Alter" sheetId="24" r:id="rId2"/>
+    <sheet name="Bus" sheetId="2" r:id="rId3"/>
+    <sheet name="PQ" sheetId="3" r:id="rId4"/>
+    <sheet name="PV" sheetId="4" r:id="rId5"/>
+    <sheet name="Slack" sheetId="5" r:id="rId6"/>
+    <sheet name="Line" sheetId="7" r:id="rId7"/>
+    <sheet name="Shunt" sheetId="6" r:id="rId8"/>
+    <sheet name="Area" sheetId="8" r:id="rId9"/>
+    <sheet name="GENROU" sheetId="9" r:id="rId10"/>
+    <sheet name="HYGOV4" sheetId="21" r:id="rId11"/>
+    <sheet name="TGOV1" sheetId="10" r:id="rId12"/>
+    <sheet name="EXST1" sheetId="11" r:id="rId13"/>
+    <sheet name="ESST3A" sheetId="12" r:id="rId14"/>
+    <sheet name="BusFreq" sheetId="13" r:id="rId15"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="191">
   <si>
     <t>uid</t>
   </si>
@@ -563,17 +564,56 @@
     <t>UO</t>
   </si>
   <si>
+    <t>src</t>
+  </si>
+  <si>
+    <t>attr</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>rand</t>
+  </si>
+  <si>
+    <t>lb</t>
+  </si>
+  <si>
+    <t>ub</t>
+  </si>
+  <si>
+    <t>PQ</t>
+  </si>
+  <si>
+    <t>Ppf</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
     <t>Toggler_1</t>
   </si>
   <si>
     <t>Line</t>
+  </si>
+  <si>
+    <t>Toggler_2</t>
+  </si>
+  <si>
+    <t>Hdam</t>
+  </si>
+  <si>
+    <t>LoadRamp_1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -599,6 +639,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -657,7 +704,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -677,6 +724,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -982,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4181E1E-F7D3-4158-B920-64AB8EA7781B}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55"/>
@@ -1016,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="E2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -1035,7 +1084,27 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1"/>
@@ -1044,22 +1113,23 @@
       <c r="A5" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E613F46-39BC-604D-A2CE-C40FAEE39A69}">
-  <dimension ref="A1:S2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:AB6"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.55"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1073,108 +1143,491 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>168</v>
+        <v>94</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>169</v>
+        <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>170</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>171</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>163</v>
+        <v>96</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>162</v>
+        <v>52</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="4" customFormat="1">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>69</v>
+      </c>
+      <c r="J2">
+        <v>60</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>8</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.15</v>
+      </c>
+      <c r="O2">
+        <v>0.6</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.09</v>
+      </c>
+      <c r="S2">
+        <v>0.38</v>
+      </c>
+      <c r="T2">
+        <v>1.8</v>
+      </c>
+      <c r="U2">
+        <v>1.75</v>
+      </c>
+      <c r="V2">
+        <v>0.23</v>
+      </c>
+      <c r="W2">
+        <v>0.8</v>
+      </c>
+      <c r="X2">
+        <v>0.23</v>
+      </c>
+      <c r="Y2">
+        <v>6.5</v>
+      </c>
+      <c r="Z2">
+        <v>0.06</v>
+      </c>
+      <c r="AA2">
+        <v>0.2</v>
+      </c>
+      <c r="AB2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3">
+        <v>69</v>
+      </c>
+      <c r="J3">
+        <v>60</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>13</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.15</v>
+      </c>
+      <c r="O3">
+        <v>0.6</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.09</v>
+      </c>
+      <c r="S3">
+        <v>0.38</v>
+      </c>
+      <c r="T3">
+        <v>1.8</v>
+      </c>
+      <c r="U3">
+        <v>1.75</v>
+      </c>
+      <c r="V3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="W3">
+        <v>0.8</v>
+      </c>
+      <c r="X3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Y3">
+        <v>6.5</v>
+      </c>
+      <c r="Z3">
+        <v>0.06</v>
+      </c>
+      <c r="AA3">
+        <v>0.2</v>
+      </c>
+      <c r="AB3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>69</v>
+      </c>
+      <c r="J4">
+        <v>60</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.15</v>
+      </c>
+      <c r="O4">
+        <v>0.6</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.09</v>
+      </c>
+      <c r="S4">
+        <v>0.38</v>
+      </c>
+      <c r="T4">
+        <v>1.8</v>
+      </c>
+      <c r="U4">
+        <v>1.75</v>
+      </c>
+      <c r="V4">
+        <v>0.34</v>
+      </c>
+      <c r="W4">
+        <v>0.8</v>
+      </c>
+      <c r="X4">
+        <v>0.34</v>
+      </c>
+      <c r="Y4">
+        <v>6.5</v>
+      </c>
+      <c r="Z4">
+        <v>0.06</v>
+      </c>
+      <c r="AA4">
+        <v>0.2</v>
+      </c>
+      <c r="AB4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>138</v>
+      </c>
+      <c r="J5">
+        <v>60</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.15</v>
+      </c>
+      <c r="O5">
+        <v>0.6</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.09</v>
+      </c>
+      <c r="S5">
+        <v>0.38</v>
+      </c>
+      <c r="T5">
+        <v>1.8</v>
+      </c>
+      <c r="U5">
+        <v>1.75</v>
+      </c>
+      <c r="V5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="W5">
+        <v>0.8</v>
+      </c>
+      <c r="X5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Y5">
+        <v>6.5</v>
+      </c>
+      <c r="Z5">
+        <v>0.06</v>
+      </c>
+      <c r="AA5">
+        <v>0.2</v>
+      </c>
+      <c r="AB5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H2" s="4">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4">
-        <v>1</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>69</v>
+      </c>
+      <c r="J6">
+        <v>60</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0.15</v>
+      </c>
+      <c r="O6">
+        <v>0.6</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.09</v>
+      </c>
+      <c r="S6">
+        <v>0.38</v>
+      </c>
+      <c r="T6">
+        <v>1.8</v>
+      </c>
+      <c r="U6">
+        <v>1.75</v>
+      </c>
+      <c r="V6">
+        <v>0.34</v>
+      </c>
+      <c r="W6">
+        <v>0.8</v>
+      </c>
+      <c r="X6">
+        <v>0.34</v>
+      </c>
+      <c r="Y6">
+        <v>6.5</v>
+      </c>
+      <c r="Z6">
+        <v>0.06</v>
+      </c>
+      <c r="AA6">
+        <v>0.2</v>
+      </c>
+      <c r="AB6">
         <v>0.05</v>
-      </c>
-      <c r="L2" s="4">
-        <v>1</v>
-      </c>
-      <c r="M2" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="N2" s="4">
-        <v>0</v>
-      </c>
-      <c r="O2" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="P2" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>1</v>
-      </c>
-      <c r="R2" s="4">
-        <v>0</v>
-      </c>
-      <c r="S2" s="4">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1183,12 +1636,151 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E613F46-39BC-604D-A2CE-C40FAEE39A69}">
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.55"/>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="4" customFormat="1">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.45001000000000002</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="L2" s="4">
+        <v>1</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="P2" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>1</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <v>1</v>
+      </c>
+      <c r="T2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>
@@ -1406,7 +1998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
@@ -1528,7 +2120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:Z4"/>
   <sheetViews>
@@ -1864,7 +2456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -1985,6 +2577,106 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F03747-F458-4173-879D-6EE57DF4D064}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.55"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J2" t="s">
+        <v>185</v>
+      </c>
+      <c r="K2">
+        <v>0.5</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N15"/>
   <sheetViews>
@@ -2660,7 +3352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
@@ -3096,7 +3788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S5"/>
   <sheetViews>
@@ -3395,7 +4087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T2"/>
   <sheetViews>
@@ -3532,7 +4224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:X21"/>
   <sheetViews>
@@ -4922,7 +5614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -5034,7 +5726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -5090,521 +5782,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AB6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>
-  <sheetData>
-    <row r="1" spans="1:28">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>100</v>
-      </c>
-      <c r="I2">
-        <v>69</v>
-      </c>
-      <c r="J2">
-        <v>60</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>8</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0.15</v>
-      </c>
-      <c r="O2">
-        <v>0.6</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0.09</v>
-      </c>
-      <c r="S2">
-        <v>0.38</v>
-      </c>
-      <c r="T2">
-        <v>1.8</v>
-      </c>
-      <c r="U2">
-        <v>1.75</v>
-      </c>
-      <c r="V2">
-        <v>0.23</v>
-      </c>
-      <c r="W2">
-        <v>0.8</v>
-      </c>
-      <c r="X2">
-        <v>0.23</v>
-      </c>
-      <c r="Y2">
-        <v>6.5</v>
-      </c>
-      <c r="Z2">
-        <v>0.06</v>
-      </c>
-      <c r="AA2">
-        <v>0.2</v>
-      </c>
-      <c r="AB2">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>100</v>
-      </c>
-      <c r="I3">
-        <v>69</v>
-      </c>
-      <c r="J3">
-        <v>60</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>13</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0.15</v>
-      </c>
-      <c r="O3">
-        <v>0.6</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0.09</v>
-      </c>
-      <c r="S3">
-        <v>0.38</v>
-      </c>
-      <c r="T3">
-        <v>1.8</v>
-      </c>
-      <c r="U3">
-        <v>1.75</v>
-      </c>
-      <c r="V3">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="W3">
-        <v>0.8</v>
-      </c>
-      <c r="X3">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="Y3">
-        <v>6.5</v>
-      </c>
-      <c r="Z3">
-        <v>0.06</v>
-      </c>
-      <c r="AA3">
-        <v>0.2</v>
-      </c>
-      <c r="AB3">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>100</v>
-      </c>
-      <c r="I4">
-        <v>69</v>
-      </c>
-      <c r="J4">
-        <v>60</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>10</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0.15</v>
-      </c>
-      <c r="O4">
-        <v>0.6</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0.09</v>
-      </c>
-      <c r="S4">
-        <v>0.38</v>
-      </c>
-      <c r="T4">
-        <v>1.8</v>
-      </c>
-      <c r="U4">
-        <v>1.75</v>
-      </c>
-      <c r="V4">
-        <v>0.34</v>
-      </c>
-      <c r="W4">
-        <v>0.8</v>
-      </c>
-      <c r="X4">
-        <v>0.34</v>
-      </c>
-      <c r="Y4">
-        <v>6.5</v>
-      </c>
-      <c r="Z4">
-        <v>0.06</v>
-      </c>
-      <c r="AA4">
-        <v>0.2</v>
-      </c>
-      <c r="AB4">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="H5">
-        <v>100</v>
-      </c>
-      <c r="I5">
-        <v>138</v>
-      </c>
-      <c r="J5">
-        <v>60</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>10</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0.15</v>
-      </c>
-      <c r="O5">
-        <v>0.6</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0.09</v>
-      </c>
-      <c r="S5">
-        <v>0.38</v>
-      </c>
-      <c r="T5">
-        <v>1.8</v>
-      </c>
-      <c r="U5">
-        <v>1.75</v>
-      </c>
-      <c r="V5">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="W5">
-        <v>0.8</v>
-      </c>
-      <c r="X5">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="Y5">
-        <v>6.5</v>
-      </c>
-      <c r="Z5">
-        <v>0.06</v>
-      </c>
-      <c r="AA5">
-        <v>0.2</v>
-      </c>
-      <c r="AB5">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>166</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>100</v>
-      </c>
-      <c r="I6">
-        <v>69</v>
-      </c>
-      <c r="J6">
-        <v>60</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>10</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0.15</v>
-      </c>
-      <c r="O6">
-        <v>0.6</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0.09</v>
-      </c>
-      <c r="S6">
-        <v>0.38</v>
-      </c>
-      <c r="T6">
-        <v>1.8</v>
-      </c>
-      <c r="U6">
-        <v>1.75</v>
-      </c>
-      <c r="V6">
-        <v>0.34</v>
-      </c>
-      <c r="W6">
-        <v>0.8</v>
-      </c>
-      <c r="X6">
-        <v>0.34</v>
-      </c>
-      <c r="Y6">
-        <v>6.5</v>
-      </c>
-      <c r="Z6">
-        <v>0.06</v>
-      </c>
-      <c r="AA6">
-        <v>0.2</v>
-      </c>
-      <c r="AB6">
-        <v>0.05</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/andes/cases/ieee14/ieee14_hygov4.xlsx
+++ b/andes/cases/ieee14/ieee14_hygov4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\zaidmahmood\repos\andes\andes\cases\ieee14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6201E4D-8270-4616-B24A-394896A56DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E33167B-1D44-41E1-AEF4-022C94C28D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Toggler" sheetId="23" r:id="rId1"/>
@@ -613,12 +613,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -702,30 +709,30 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1113,7 +1120,7 @@
       <c r="A5" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1124,7 +1131,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>
@@ -1640,7 +1647,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.55"/>
@@ -1697,75 +1704,75 @@
       <c r="Q1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="4" customFormat="1">
+    <row r="2" spans="1:20" s="3" customFormat="1">
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0.45001000000000002</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4">
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="3">
         <v>0.05</v>
       </c>
-      <c r="L2" s="4">
-        <v>1</v>
-      </c>
-      <c r="M2" s="4">
+      <c r="I2" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
         <v>0.05</v>
       </c>
-      <c r="N2" s="4">
-        <v>0</v>
-      </c>
-      <c r="O2" s="4">
+      <c r="L2" s="3">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
         <v>0.1</v>
       </c>
-      <c r="P2" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>1</v>
-      </c>
-      <c r="R2" s="4">
-        <v>0</v>
-      </c>
-      <c r="S2" s="4">
-        <v>1</v>
-      </c>
-      <c r="T2" s="4">
+      <c r="P2" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>1</v>
+      </c>
+      <c r="R2" s="3">
+        <v>0</v>
+      </c>
+      <c r="S2" s="3">
+        <v>1</v>
+      </c>
+      <c r="T2" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1780,7 +1787,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>
@@ -2587,46 +2594,46 @@
   <sheetFormatPr defaultRowHeight="14.55"/>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2649,7 +2656,7 @@
       <c r="F2" t="s">
         <v>183</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>41</v>
       </c>
       <c r="H2" t="s">

--- a/andes/cases/ieee14/ieee14_hygov4.xlsx
+++ b/andes/cases/ieee14/ieee14_hygov4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\zaidmahmood\repos\andes\andes\cases\ieee14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E33167B-1D44-41E1-AEF4-022C94C28D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5741A1AB-144F-4616-8469-A588997F93CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1647,7 +1647,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.55"/>
@@ -1740,19 +1740,19 @@
         <v>0.05</v>
       </c>
       <c r="I2" s="3">
-        <v>0.46</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="J2" s="3">
         <v>0</v>
       </c>
       <c r="K2" s="3">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L2" s="3">
         <v>1</v>
       </c>
       <c r="M2" s="3">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="N2" s="3">
         <v>0</v>

--- a/andes/cases/ieee14/ieee14_hygov4.xlsx
+++ b/andes/cases/ieee14/ieee14_hygov4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\zaidmahmood\repos\andes\andes\cases\ieee14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5741A1AB-144F-4616-8469-A588997F93CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53588887-BF24-4E4E-97CA-8A564DA217C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1740,7 +1740,7 @@
         <v>0.05</v>
       </c>
       <c r="I2" s="3">
-        <v>0.45500000000000002</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="J2" s="3">
         <v>0</v>
@@ -2666,7 +2666,7 @@
         <v>185</v>
       </c>
       <c r="K2">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="L2">
         <v>0</v>
